--- a/DS Smith/Services Calculator DSSmith.xlsx
+++ b/DS Smith/Services Calculator DSSmith.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCrayon\UK\DS Smith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08534005-BBB4-4DC4-A060-98E8C4D292B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555AB57-6262-4BC5-98DF-1A14E03FEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E2ED07B-04DC-44F6-98B8-F069C4E7E90D}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlexeraOne" sheetId="5" r:id="rId1"/>
-    <sheet name="Weighting" sheetId="3" r:id="rId2"/>
-    <sheet name="Lookup" sheetId="4" r:id="rId3"/>
+    <sheet name="SoW" sheetId="7" r:id="rId1"/>
+    <sheet name="Resourcing" sheetId="6" r:id="rId2"/>
+    <sheet name="FlexeraOne" sheetId="5" r:id="rId3"/>
+    <sheet name="Weighting" sheetId="3" r:id="rId4"/>
+    <sheet name="Lookup" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resourcing!$A$1:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Implementation Task</t>
   </si>
@@ -258,16 +263,84 @@
   </si>
   <si>
     <t>DS Smith</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Short term</t>
+  </si>
+  <si>
+    <t>Long term</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Cloud Consultant</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Senior Licensing Consultant</t>
+  </si>
+  <si>
+    <t>Senior Technical Consultant</t>
+  </si>
+  <si>
+    <t>* Note:</t>
+  </si>
+  <si>
+    <t>Short term = 10 days or less</t>
+  </si>
+  <si>
+    <t>Long term = 10 days or more</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Resource Level</t>
+  </si>
+  <si>
+    <t>Project Duration</t>
+  </si>
+  <si>
+    <t>Estimated Days</t>
+  </si>
+  <si>
+    <t>Daily Rate  $/day</t>
+  </si>
+  <si>
+    <t>Estimated Fees (AUD)</t>
+  </si>
+  <si>
+    <t>Systems Design</t>
+  </si>
+  <si>
+    <t>Flexera One System Implementation</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +403,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Stag Sans Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +484,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6B4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -499,11 +628,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -594,6 +770,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,12 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -636,14 +815,333 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Stag Sans Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6B4D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -678,6 +1176,9 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -781,6 +1282,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -790,12 +1303,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -812,27 +1331,6 @@
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -870,16 +1368,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{91E0A7EA-9E9F-4A71-AE67-026C08E715CE}" name="Table112" displayName="Table112" ref="A1:B6" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8D538B3D-5FD9-497C-B6E5-35BA0BADFE1D}" name="Environments"/>
-    <tableColumn id="2" xr3:uid="{972212A2-3E44-47FE-91A7-26B2ECAEF22F}" name="Required?"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B166ACED-DA0E-4180-9765-00687557B21C}" name="Table2" displayName="Table2" ref="A1:G6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4CAED6F1-E51E-4BD8-B68D-E50E05BA6E9D}" name="Item" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3CC6FBE6-1A00-47DF-80C9-7DC54293E2DE}" name="Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EDB16DE1-7AF4-4F27-8E47-3BFE91458A27}" name="Resource Level" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ACD91B13-CA68-44AC-9A7E-DDEFC9E8AE23}" name="Project Duration" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{80AA0BB9-6868-42D0-8441-525351E04BB8}" name="Estimated Days" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1D6C7964-65E6-4841-8A50-C279462C287B}" name="Daily Rate  $/day" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(#REF!,MATCH(C2,#REF!,0),MATCH(D2,#REF!,0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{73A1D48B-BE35-4CF8-9EC8-47A32F7AE116}" name="Estimated Fees (AUD)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81919BF8-6897-4F4B-B2A9-79C6AE16AA54}" name="Table10" displayName="Table10" ref="F8:I14" totalsRowCount="1">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{23F9DD28-7335-4E8A-AFDF-B44A803174F4}" name="Enterprise Factor" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B4A8C4F0-3F50-4F78-BE7B-03675816742A}" name="InScope" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{EEC2FF5F-F588-4750-881C-45D729F51403}" name="Value" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0C3D608B-EA3E-4760-B955-E67FF1FF2937}" name="Points" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF(G9="Yes",H9,0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table10[Points])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9D34265-B6FA-4D13-B9F9-4ABAAB73AD75}" name="Table5" displayName="Table5" ref="A1:A3" totalsRowShown="0">
   <autoFilter ref="A1:A3" xr:uid="{E9D34265-B6FA-4D13-B9F9-4ABAAB73AD75}"/>
   <tableColumns count="1">
@@ -890,6 +1410,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{91E0A7EA-9E9F-4A71-AE67-026C08E715CE}" name="Table112" displayName="Table112" ref="A1:B6" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8D538B3D-5FD9-497C-B6E5-35BA0BADFE1D}" name="Environments"/>
+    <tableColumn id="2" xr3:uid="{972212A2-3E44-47FE-91A7-26B2ECAEF22F}" name="Required?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DE7D6350-7986-41BF-92D0-EBEB09825E15}" name="Table1313" displayName="Table1313" ref="A8:B14" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{77D5B6AC-09B9-4156-82B0-C7E4DD246813}" name="Extra Features"/>
@@ -899,12 +1429,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52D20955-2BAC-4AB2-9814-80AD198E5C51}" name="Table14" displayName="Table14" ref="A1:C6" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CB72A213-FA4B-4D6D-AB57-4B70FF639931}" name="Environments"/>
     <tableColumn id="2" xr3:uid="{8365E0F9-A096-4B36-9AD1-F2CCC3E12444}" name="Required?"/>
-    <tableColumn id="3" xr3:uid="{1EC59667-6712-405D-84EE-364685D8DD4E}" name="Points" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{1EC59667-6712-405D-84EE-364685D8DD4E}" name="Points" dataDxfId="28">
       <calculatedColumnFormula>IF(B2="Yes",1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -912,16 +1442,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB5D084-5005-4BC8-9A91-D0222D2BF3AF}" name="Table135" displayName="Table135" ref="A8:D14" totalsRowCount="1" totalsRowDxfId="15">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB5D084-5005-4BC8-9A91-D0222D2BF3AF}" name="Table135" displayName="Table135" ref="A8:D14" totalsRowCount="1" totalsRowDxfId="27">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0E1951BD-0B11-47E5-B7BE-0EB8B3B3AC74}" name="Extra Features" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{75354DC7-9904-4339-8B88-B0E0ABFBF3E9}" name="Required?" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{ADF0BA0B-5C72-4011-B329-3E6EB0EE36FF}" name="Points" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{0E1951BD-0B11-47E5-B7BE-0EB8B3B3AC74}" name="Extra Features" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{75354DC7-9904-4339-8B88-B0E0ABFBF3E9}" name="Required?" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{ADF0BA0B-5C72-4011-B329-3E6EB0EE36FF}" name="Points" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(B9="Yes",1,0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(C9:C13)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4B39ECF3-9C6F-4BB4-8943-4338FDFBFF9A}" name="Days" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{4B39ECF3-9C6F-4BB4-8943-4338FDFBFF9A}" name="Days" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>C9*0.5</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(Table135[Days]),0)</totalsRowFormula>
     </tableColumn>
@@ -930,7 +1460,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{12336161-6BB5-43E5-B6B8-12469C859065}" name="Table7" displayName="Table7" ref="F1:G5" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AA821CC0-124E-41D4-954D-B7E1F43E84CD}" name="Factor"/>
@@ -940,7 +1470,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{57835FA8-D295-4522-8203-73637012A371}" name="Table8" displayName="Table8" ref="I1:I2" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5E5A3EFD-ABF6-476A-8BEB-1C2AAE3FD9CC}" name="Beacons">
@@ -951,15 +1481,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A01E23CF-60A4-4EF6-9424-E74D5D1A2203}" name="Table6" displayName="Table6" ref="A16:E21" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F8868F6B-6B28-4C9E-84FA-B5CD1C3EE0A3}" name="TEIR-1 Vendor"/>
     <tableColumn id="2" xr3:uid="{3D8A164F-16D9-4CA5-92F4-8A582E1F0452}" name="Required"/>
-    <tableColumn id="3" xr3:uid="{185E98F0-55BF-4651-A9D9-770F1728471C}" name="Points" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{185E98F0-55BF-4651-A9D9-770F1728471C}" name="Points" dataDxfId="20">
       <calculatedColumnFormula>IF(B17="Yes",1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF123C29-B177-4228-9333-5C182F305B1F}" name="Estimate" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{AF123C29-B177-4228-9333-5C182F305B1F}" name="Estimate" dataDxfId="19">
       <calculatedColumnFormula>C17*5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{CEE5A1A6-E46E-4E74-A439-513A396C835C}" name="Days"/>
@@ -968,33 +1498,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{793EC815-1109-4E2B-A5FF-893B61216298}" name="Table610" displayName="Table610" ref="A24:E29" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0F38BF05-A299-41D5-BD9A-4206D7F1D121}" name="TEIR-2 Vendor"/>
     <tableColumn id="2" xr3:uid="{2DE07D47-5866-4271-98A7-E1542A7F28C0}" name="Required"/>
-    <tableColumn id="3" xr3:uid="{13CF2BDC-07FB-4C07-8203-FD4522DAC2E2}" name="Points" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{13CF2BDC-07FB-4C07-8203-FD4522DAC2E2}" name="Points" dataDxfId="18">
       <calculatedColumnFormula>IF(B25="Yes",1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{82673ED9-4D0B-4FC6-B580-84310296E640}" name="Estimate" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{82673ED9-4D0B-4FC6-B580-84310296E640}" name="Estimate" dataDxfId="17">
       <calculatedColumnFormula>C25*5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A5EB11EF-3DF3-40EB-B836-3B5F518265F8}" name="Days"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81919BF8-6897-4F4B-B2A9-79C6AE16AA54}" name="Table10" displayName="Table10" ref="F8:I14" totalsRowCount="1">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{23F9DD28-7335-4E8A-AFDF-B44A803174F4}" name="Enterprise Factor" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B4A8C4F0-3F50-4F78-BE7B-03675816742A}" name="InScope" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EEC2FF5F-F588-4750-881C-45D729F51403}" name="Value" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0C3D608B-EA3E-4760-B955-E67FF1FF2937}" name="Points" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
-      <calculatedColumnFormula>IF(G9="Yes",H9,0)</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Table10[Points])</totalsRowFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1315,10 +1830,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695D094D-D005-443C-A39D-D7325A2C6AC3}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="70" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="85" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="70" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="67" t="str">
+        <f>IF(E2&lt;=10,"Short term","Long term")</f>
+        <v>Short term</v>
+      </c>
+      <c r="E2" s="67">
+        <v>5</v>
+      </c>
+      <c r="F2" s="68">
+        <v>2200</v>
+      </c>
+      <c r="G2" s="69">
+        <f>E2*F2</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73">
+        <v>42</v>
+      </c>
+      <c r="F3" s="74">
+        <v>2200</v>
+      </c>
+      <c r="G3" s="75">
+        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>3</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67">
+        <v>45</v>
+      </c>
+      <c r="F4" s="68">
+        <v>2200</v>
+      </c>
+      <c r="G4" s="69">
+        <f t="shared" si="0"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="79" t="str">
+        <f t="shared" ref="D5" si="1">IF(E5&lt;=10,"Short term","Long term")</f>
+        <v>Short term</v>
+      </c>
+      <c r="E5" s="79">
+        <v>9</v>
+      </c>
+      <c r="F5" s="74">
+        <v>2400</v>
+      </c>
+      <c r="G5" s="75">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84">
+        <f>SUM(G2:G5)</f>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79082D-6B7D-49A7-8AB6-2F210814E5D1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="59">
+        <v>1760</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1760</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1600</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="59">
+        <v>2800</v>
+      </c>
+      <c r="C4" s="59">
+        <v>2400</v>
+      </c>
+      <c r="D4" s="59">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="59">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="59">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="59">
+        <v>2400</v>
+      </c>
+      <c r="C6" s="59">
+        <v>2200</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C72F7-221D-4EB9-9344-29EFC3DD2566}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1345,11 +2140,11 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1390,11 +2185,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="2"/>
       <c r="J3" s="6"/>
     </row>
@@ -1462,7 +2257,7 @@
       <c r="H6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="42">
         <v>15</v>
       </c>
       <c r="J6" s="14">
@@ -1549,11 +2344,11 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="3"/>
       <c r="J10" s="14"/>
     </row>
@@ -1613,11 +2408,11 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="9">
         <v>15</v>
       </c>
@@ -1648,30 +2443,30 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="19">
         <f>SUM(J2:J14)</f>
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="27">
         <f>Weighting!I14</f>
         <v>0.1</v>
@@ -1682,8 +2477,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1701,18 +2496,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="22"/>
       <c r="J18" s="17">
         <f>J15+J16+J17</f>
@@ -1777,7 +2572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F0FDC-638E-44B4-9D8A-4D23A2F246CE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2335,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C1EE6D-DB44-448D-8079-33A9D011EE7B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
